--- a/avg-speed.xlsx
+++ b/avg-speed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Airtel 100Mbps (100x TestReport Avg Speed .xlsx)</t>
   </si>
@@ -233,12 +233,21 @@
   <si>
     <t xml:space="preserve">Jitter : 11ms || Cloudflare Ping : 84ms || Ookla Ping : 27ms</t>
   </si>
+  <si>
+    <t xml:space="preserve">Data Usage Download : ∑(58.1 GiB) &amp; Upload : ∑(61.8 GiB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download : ∑(52.7 GiB) &amp; Upload : ∑(53.4 GiB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source : https://github.com/prateekmaru/Airtel-vs-Jio-100Mbps-FTTH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -353,6 +362,24 @@
       <color indexed="2"/>
       <sz val="11.000000"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="14.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="16.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -460,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +587,15 @@
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="21" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="22" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="23" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,43 +1102,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="4.7109375"/>
-    <col bestFit="1" min="2" max="2" style="1" width="12.57421875"/>
-    <col bestFit="1" min="3" max="3" style="1" width="10.00390625"/>
-    <col bestFit="1" min="4" max="4" style="1" width="6.140625"/>
+    <col bestFit="1" min="2" max="2" style="1" width="12.421875"/>
+    <col bestFit="1" min="3" max="3" style="1" width="11.28125"/>
+    <col bestFit="1" min="4" max="4" style="1" width="6.7109375"/>
     <col bestFit="1" min="5" max="5" style="1" width="4.7109375"/>
-    <col bestFit="1" min="6" max="6" style="1" width="12.57421875"/>
-    <col bestFit="1" min="7" max="7" style="1" width="11.00390625"/>
-    <col bestFit="1" min="8" max="8" style="1" width="6.140625"/>
+    <col bestFit="1" min="6" max="7" style="1" width="12.421875"/>
+    <col bestFit="1" min="8" max="8" style="1" width="6.7109375"/>
     <col bestFit="1" min="9" max="9" style="1" width="4.7109375"/>
-    <col bestFit="1" min="10" max="10" style="1" width="12.57421875"/>
-    <col bestFit="1" min="11" max="11" style="1" width="9.140625"/>
-    <col bestFit="1" min="12" max="12" style="1" width="10.421875"/>
-    <col bestFit="1" min="13" max="13" style="1" width="4.7109375"/>
-    <col bestFit="1" min="14" max="14" style="1" width="12.57421875"/>
-    <col bestFit="1" min="15" max="15" style="1" width="10.140625"/>
-    <col bestFit="1" min="16" max="16" style="1" width="6.140625"/>
-    <col bestFit="1" min="17" max="17" style="1" width="4.7109375"/>
-    <col bestFit="1" min="18" max="18" style="1" width="12.57421875"/>
-    <col bestFit="1" min="19" max="19" style="1" width="10.00390625"/>
-    <col bestFit="1" min="20" max="20" style="1" width="6.140625"/>
-    <col bestFit="1" min="21" max="21" style="1" width="4.7109375"/>
-    <col bestFit="1" min="22" max="22" style="1" width="12.57421875"/>
-    <col bestFit="1" min="23" max="23" style="1" width="9.140625"/>
+    <col bestFit="1" min="10" max="10" style="1" width="12.421875"/>
+    <col bestFit="1" min="11" max="11" style="1" width="9.57421875"/>
+    <col bestFit="1" min="12" max="12" style="1" width="9.140625"/>
+    <col bestFit="1" min="13" max="13" style="1" width="5.140625"/>
+    <col bestFit="1" min="14" max="14" style="1" width="13.140625"/>
+    <col bestFit="1" min="15" max="15" style="1" width="12.00390625"/>
+    <col bestFit="1" min="16" max="16" style="1" width="7.421875"/>
+    <col bestFit="1" min="17" max="17" style="1" width="5.140625"/>
+    <col bestFit="1" min="18" max="18" style="1" width="13.140625"/>
+    <col bestFit="1" min="19" max="19" style="1" width="12.00390625"/>
+    <col bestFit="1" min="20" max="20" style="1" width="7.421875"/>
+    <col bestFit="1" min="21" max="21" style="1" width="5.140625"/>
+    <col bestFit="1" min="22" max="22" style="1" width="13.140625"/>
+    <col bestFit="1" min="23" max="23" style="1" width="9.7109375"/>
     <col min="24" max="24" style="1" width="9.140625"/>
-    <col bestFit="1" min="25" max="25" style="1" width="13.140625"/>
-    <col bestFit="1" min="26" max="26" style="1" width="12.8515625"/>
-    <col bestFit="1" min="27" max="27" style="1" width="12.7109375"/>
+    <col bestFit="1" min="25" max="25" style="1" width="13.00390625"/>
+    <col bestFit="1" min="26" max="26" style="1" width="12.421875"/>
+    <col bestFit="1" min="27" max="27" style="1" width="12.140625"/>
     <col min="28" max="28" style="1" width="9.140625"/>
-    <col bestFit="1" min="29" max="30" style="1" width="12.8515625"/>
-    <col bestFit="1" min="31" max="31" style="1" width="13.28125"/>
+    <col bestFit="1" min="29" max="29" style="1" width="12.7109375"/>
+    <col bestFit="1" min="30" max="30" style="1" width="12.421875"/>
+    <col bestFit="1" min="31" max="31" style="1" width="13.00390625"/>
     <col min="32" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
@@ -9695,8 +9734,10 @@
       <c r="AD110" s="28"/>
       <c r="AE110" s="28"/>
     </row>
-    <row r="111" ht="14.25">
-      <c r="A111" s="38"/>
+    <row r="111" ht="21">
+      <c r="A111" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
@@ -9708,7 +9749,9 @@
       <c r="J111" s="38"/>
       <c r="K111" s="38"/>
       <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
+      <c r="M111" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="N111" s="38"/>
       <c r="O111" s="38"/>
       <c r="P111" s="38"/>
@@ -9719,17 +9762,19 @@
       <c r="U111" s="38"/>
       <c r="V111" s="38"/>
       <c r="W111" s="38"/>
-      <c r="X111" s="38"/>
-      <c r="Y111" s="38"/>
-      <c r="Z111" s="38"/>
-      <c r="AA111" s="38"/>
-      <c r="AB111" s="38"/>
-      <c r="AC111" s="38"/>
-      <c r="AD111" s="38"/>
-      <c r="AE111" s="38"/>
+      <c r="X111" s="39"/>
+      <c r="Y111" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z111" s="40"/>
+      <c r="AA111" s="40"/>
+      <c r="AB111" s="40"/>
+      <c r="AC111" s="40"/>
+      <c r="AD111" s="40"/>
+      <c r="AE111" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="Y1:AA2"/>
@@ -9754,11 +9799,13 @@
     <mergeCell ref="AB108:AB109"/>
     <mergeCell ref="A110:K110"/>
     <mergeCell ref="M110:W110"/>
-    <mergeCell ref="A111:AE111"/>
+    <mergeCell ref="A111:K111"/>
+    <mergeCell ref="M111:W111"/>
+    <mergeCell ref="Y111:AE111"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700776" bottom="0.75196850393700776" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="50" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/avg-speed.xlsx
+++ b/avg-speed.xlsx
@@ -1107,7 +1107,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1146,7 @@
     <col min="32" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" ht="26.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
     </row>
-    <row r="2" s="7" customFormat="1" ht="14.25">
+    <row r="2" s="7" customFormat="1" ht="18">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" ht="54">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" ht="18">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>30.725999999999999</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" ht="18">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>25.143999999999998</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" ht="18">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>27.324999999999999</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" ht="18">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>27.295999999999999</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" ht="18">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>25.423999999999999</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" ht="18">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>26.791</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" ht="18">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>23.831</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" ht="18">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>29.468</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" ht="18">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>26.416</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" ht="18">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>31.381</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" ht="18">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>30.199999999999999</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" ht="18">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>30.986999999999998</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" ht="18">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>37.536999999999999</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" ht="18">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>29.561</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" ht="18">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>27.981000000000002</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" ht="18">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>26.081</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" ht="18">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>27.013000000000002</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" ht="18">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>26.538</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" ht="18">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>38.725000000000001</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" ht="18">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>36.079999999999998</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" ht="18">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>30.213000000000001</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" ht="18">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>27.024999999999999</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" ht="18">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>25.501000000000001</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" ht="18">
       <c r="A27" s="12">
         <v>24</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>26.920999999999999</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" ht="18">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>32.554000000000002</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" ht="18">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>25.241</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" ht="18">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>22.794</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" ht="18">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>28.867000000000001</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" ht="18">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>24.785</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" ht="18">
       <c r="A33" s="12">
         <v>30</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>26.817</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" ht="18">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>29.739000000000001</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" ht="18">
       <c r="A35" s="12">
         <v>32</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>26.760000000000002</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" ht="18">
       <c r="A36" s="12">
         <v>33</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>25.184999999999999</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" ht="18">
       <c r="A37" s="12">
         <v>34</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>26.585999999999999</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" ht="18">
       <c r="A38" s="12">
         <v>35</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>23.957000000000001</v>
       </c>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" ht="18">
       <c r="A39" s="12">
         <v>36</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>26.954000000000001</v>
       </c>
     </row>
-    <row r="40" ht="14.25">
+    <row r="40" ht="18">
       <c r="A40" s="12">
         <v>37</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>30.149000000000001</v>
       </c>
     </row>
-    <row r="41" ht="14.25">
+    <row r="41" ht="18">
       <c r="A41" s="12">
         <v>38</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>24.437000000000001</v>
       </c>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" ht="18">
       <c r="A42" s="12">
         <v>39</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>25.048999999999999</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" ht="18">
       <c r="A43" s="12">
         <v>40</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>30.428000000000001</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" ht="18">
       <c r="A44" s="12">
         <v>41</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>30.843</v>
       </c>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" ht="18">
       <c r="A45" s="12">
         <v>42</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>25.637</v>
       </c>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" ht="18">
       <c r="A46" s="12">
         <v>43</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" ht="18">
       <c r="A47" s="12">
         <v>44</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>30.259</v>
       </c>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" ht="18">
       <c r="A48" s="12">
         <v>45</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>22.754000000000001</v>
       </c>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" ht="18">
       <c r="A49" s="12">
         <v>46</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>34.399999999999999</v>
       </c>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" ht="18">
       <c r="A50" s="12">
         <v>47</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>26.928999999999998</v>
       </c>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" ht="18">
       <c r="A51" s="12">
         <v>48</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>27.689</v>
       </c>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" ht="18">
       <c r="A52" s="12">
         <v>49</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>27.044</v>
       </c>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" ht="18">
       <c r="A53" s="12">
         <v>50</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>24.538</v>
       </c>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" ht="18">
       <c r="A54" s="12">
         <v>51</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>25.683</v>
       </c>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" ht="18">
       <c r="A55" s="12">
         <v>52</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>30.678999999999998</v>
       </c>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" ht="18">
       <c r="A56" s="12">
         <v>53</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>29.175999999999998</v>
       </c>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" ht="18">
       <c r="A57" s="12">
         <v>54</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>31.056000000000001</v>
       </c>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" ht="18">
       <c r="A58" s="12">
         <v>55</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>33.341000000000001</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" ht="18">
       <c r="A59" s="12">
         <v>56</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>24.545999999999999</v>
       </c>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" ht="18">
       <c r="A60" s="12">
         <v>57</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>25.273</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" ht="18">
       <c r="A61" s="12">
         <v>58</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>28.193000000000001</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" ht="18">
       <c r="A62" s="12">
         <v>59</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>28.521999999999998</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" ht="18">
       <c r="A63" s="12">
         <v>60</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>33.600000000000001</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" ht="18">
       <c r="A64" s="12">
         <v>61</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="AD110" s="28"/>
       <c r="AE110" s="28"/>
     </row>
-    <row r="111" ht="21">
+    <row r="111" ht="14.25">
       <c r="A111" s="38" t="s">
         <v>22</v>
       </c>
